--- a/docs/Store/templates/Client.xlsx
+++ b/docs/Store/templates/Client.xlsx
@@ -18,7 +18,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>clients</t>
+    <t>client_clients_table</t>
   </si>
   <si>
     <t>Client</t>
@@ -120,7 +120,7 @@
     <t>Insert Statement</t>
   </si>
   <si>
-    <t>client_addresses</t>
+    <t>client_client_addresses_table</t>
   </si>
   <si>
     <t>Client address</t>

--- a/docs/Store/templates/Client.xlsx
+++ b/docs/Store/templates/Client.xlsx
@@ -418,139 +418,139 @@
     </row>
     <row r="5">
       <c r="W5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AS5&") VALUES ("&BO5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AS5&") VALUES ("&BO5&");" ]]></f>
       </c>
       <c r="X5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="Z5">
-        <f><![CDATA[Y5&IF(AND(Y5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  Y5&IF(AND(Y5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="AA5">
-        <f><![CDATA[Z5&IF(AND(Z5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  Z5&IF(AND(Z5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="AB5">
-        <f><![CDATA[AA5&IF(AND(AA5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  AA5&IF(AND(AA5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="AD5">
-        <f><![CDATA[AC5&IF(AND(AC5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  AC5&IF(AND(AC5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="AE5">
-        <f><![CDATA[AD5&IF(AND(AD5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  AD5&IF(AND(AD5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="AF5">
-        <f><![CDATA[AE5&IF(AND(AE5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  AE5&IF(AND(AE5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="AG5">
-        <f><![CDATA[AF5&IF(AND(AF5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  AF5&IF(AND(AF5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="AH5">
-        <f><![CDATA[AG5&IF(AND(AG5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  AG5&IF(AND(AG5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="AI5">
-        <f><![CDATA[AH5&IF(AND(AH5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  AH5&IF(AND(AH5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="AJ5">
-        <f><![CDATA[AI5&IF(AND(AI5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","")]]></f>
+        <f><![CDATA[  AI5&IF(AND(AI5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
       </c>
       <c r="AK5">
-        <f><![CDATA[AJ5&IF(AND(AJ5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","")]]></f>
+        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
       </c>
       <c r="AL5">
-        <f><![CDATA[AK5&IF(AND(AK5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","")]]></f>
+        <f><![CDATA[  AK5&IF(AND(AK5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","") ]]></f>
       </c>
       <c r="AM5">
-        <f><![CDATA[AL5&IF(AND(AL5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","")]]></f>
+        <f><![CDATA[  AL5&IF(AND(AL5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","") ]]></f>
       </c>
       <c r="AN5">
-        <f><![CDATA[AM5&IF(AND(AM5<>"",Q5<>""),", ","")&IF(Q5<>"",""""&Q$3&"""","")]]></f>
+        <f><![CDATA[  AM5&IF(AND(AM5<>"",Q5<>""),", ","")&IF(Q5<>"",""""&Q$3&"""","") ]]></f>
       </c>
       <c r="AO5">
-        <f><![CDATA[AN5&IF(AND(AN5<>"",R5<>""),", ","")&IF(R5<>"",""""&R$3&"""","")]]></f>
+        <f><![CDATA[  AN5&IF(AND(AN5<>"",R5<>""),", ","")&IF(R5<>"",""""&R$3&"""","") ]]></f>
       </c>
       <c r="AP5">
-        <f><![CDATA[AO5&IF(AND(AO5<>"",S5<>""),", ","")&IF(S5<>"",""""&S$3&"""","")]]></f>
+        <f><![CDATA[  AO5&IF(AND(AO5<>"",S5<>""),", ","")&IF(S5<>"",""""&S$3&"""","") ]]></f>
       </c>
       <c r="AQ5">
-        <f><![CDATA[AP5&IF(AND(AP5<>"",T5<>""),", ","")&IF(T5<>"",""""&T$3&"""","")]]></f>
+        <f><![CDATA[  AP5&IF(AND(AP5<>"",T5<>""),", ","")&IF(T5<>"",""""&T$3&"""","") ]]></f>
       </c>
       <c r="AR5">
-        <f><![CDATA[AQ5&IF(AND(AQ5<>"",U5<>""),", ","")&IF(U5<>"",""""&U$3&"""","")]]></f>
+        <f><![CDATA[  AQ5&IF(AND(AQ5<>"",U5<>""),", ","")&IF(U5<>"",""""&U$3&"""","") ]]></f>
       </c>
       <c r="AS5">
-        <f><![CDATA[AR5&IF(AND(AR5<>"",V5<>""),", ","")&IF(V5<>"",""""&V$3&"""","")]]></f>
+        <f><![CDATA[  AR5&IF(AND(AR5<>"",V5<>""),", ","")&IF(V5<>"",""""&V$3&"""","") ]]></f>
       </c>
       <c r="AT5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="AU5">
-        <f><![CDATA[AT5&IF(AND(AT5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  AT5&IF(AND(AT5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="AV5">
-        <f><![CDATA[AU5&IF(AND(AU5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  AU5&IF(AND(AU5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="AW5">
-        <f><![CDATA[AV5&IF(AND(AV5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  AV5&IF(AND(AV5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="AX5">
-        <f><![CDATA[AW5&IF(AND(AW5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  AW5&IF(AND(AW5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="AY5">
-        <f><![CDATA[AX5&IF(AND(AX5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  AX5&IF(AND(AX5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="AZ5">
-        <f><![CDATA[AY5&IF(AND(AY5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  AY5&IF(AND(AY5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="BA5">
-        <f><![CDATA[AZ5&IF(AND(AZ5<>"",H5<>""),", ","")&IF(H5<>"","'"&H5&"'","")]]></f>
+        <f><![CDATA[  AZ5&IF(AND(AZ5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
       </c>
       <c r="BB5">
-        <f><![CDATA[BA5&IF(AND(BA5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  BA5&IF(AND(BA5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="BC5">
-        <f><![CDATA[BB5&IF(AND(BB5<>"",J5<>""),", ","")&IF(J5<>"","'"&J5&"'","")]]></f>
+        <f><![CDATA[  BB5&IF(AND(BB5<>"",J5<>""),", ","")&IF(J5<>"", "'"&J5&"'" ,"") ]]></f>
       </c>
       <c r="BD5">
-        <f><![CDATA[BC5&IF(AND(BC5<>"",K5<>""),", ","")&IF(K5<>"","'"&K5&"'","")]]></f>
+        <f><![CDATA[  BC5&IF(AND(BC5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
       </c>
       <c r="BE5">
-        <f><![CDATA[BD5&IF(AND(BD5<>"",L5<>""),", ","")&IF(L5<>"","'"&L5&"'","")]]></f>
+        <f><![CDATA[  BD5&IF(AND(BD5<>"",L5<>""),", ","")&IF(L5<>"", "'"&L5&"'" ,"") ]]></f>
       </c>
       <c r="BF5">
-        <f><![CDATA[BE5&IF(AND(BE5<>"",M5<>""),", ","")&IF(M5<>"","'"&M5&"'","")]]></f>
+        <f><![CDATA[  BE5&IF(AND(BE5<>"",M5<>""),", ","")&IF(M5<>"", "'"&M5&"'" ,"") ]]></f>
       </c>
       <c r="BG5">
-        <f><![CDATA[BF5&IF(AND(BF5<>"",N5<>""),", ","")&IF(N5<>"","'"&N5&"'","")]]></f>
+        <f><![CDATA[  BF5&IF(AND(BF5<>"",N5<>""),", ","")&IF(N5<>"", "'"&N5&"'" ,"") ]]></f>
       </c>
       <c r="BH5">
-        <f><![CDATA[BG5&IF(AND(BG5<>"",O5<>""),", ","")&IF(O5<>"","'"&O5&"'","")]]></f>
+        <f><![CDATA[  BG5&IF(AND(BG5<>"",O5<>""),", ","")&IF(O5<>"", "'"&O5&"'" ,"") ]]></f>
       </c>
       <c r="BI5">
-        <f><![CDATA[BH5&IF(AND(BH5<>"",P5<>""),", ","")&IF(P5<>"","'"&P5&"'","")]]></f>
+        <f><![CDATA[  BH5&IF(AND(BH5<>"",P5<>""),", ","")&IF(P5<>"", "'"&P5&"'" ,"") ]]></f>
       </c>
       <c r="BJ5">
-        <f><![CDATA[BI5&IF(AND(BI5<>"",Q5<>""),", ","")&IF(Q5<>"","'"&Q5&"'","")]]></f>
+        <f><![CDATA[  BI5&IF(AND(BI5<>"",Q5<>""),", ","")&IF(Q5<>"", "'"&Q5&"'" ,"") ]]></f>
       </c>
       <c r="BK5">
-        <f><![CDATA[BJ5&IF(AND(BJ5<>"",R5<>""),", ","")&IF(R5<>"","'"&R5&"'","")]]></f>
+        <f><![CDATA[  BJ5&IF(AND(BJ5<>"",R5<>""),", ","")&IF(R5<>"", "'"&R5&"'" ,"") ]]></f>
       </c>
       <c r="BL5">
-        <f><![CDATA[BK5&IF(AND(BK5<>"",S5<>""),", ","")&IF(S5<>"","'"&S5&"'","")]]></f>
+        <f><![CDATA[  BK5&IF(AND(BK5<>"",S5<>""),", ","")&IF(S5<>"", "'"&S5&"'" ,"") ]]></f>
       </c>
       <c r="BM5">
-        <f><![CDATA[BL5&IF(AND(BL5<>"",T5<>""),", ","")&IF(T5<>"","'"&TEXT(T5,"YYYY-MM-DD")&" "&TEXT(T5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  BL5&IF(AND(BL5<>"",T5<>""),", ","")&IF(T5<>"", "'"&TEXT(T5,"YYYY-MM-DD")&" "&TEXT(T5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="BN5">
-        <f><![CDATA[BM5&IF(AND(BM5<>"",U5<>""),", ","")&IF(U5<>"","'"&U5&"'","")]]></f>
+        <f><![CDATA[  BM5&IF(AND(BM5<>"",U5<>""),", ","")&IF(U5<>"", "'"&U5&"'" ,"") ]]></f>
       </c>
       <c r="BO5">
-        <f><![CDATA[BN5&IF(AND(BN5<>"",V5<>""),", ","")&IF(V5<>"","'"&TEXT(V5,"YYYY-MM-DD")&" "&TEXT(V5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  BN5&IF(AND(BN5<>"",V5<>""),", ","")&IF(V5<>"", "'"&TEXT(V5,"YYYY-MM-DD")&" "&TEXT(V5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -714,91 +714,91 @@
     </row>
     <row r="5">
       <c r="O5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AC5&") VALUES ("&AQ5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AC5&") VALUES ("&AQ5&");" ]]></f>
       </c>
       <c r="P5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="Z5">
-        <f><![CDATA[Y5&IF(AND(Y5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  Y5&IF(AND(Y5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="AA5">
-        <f><![CDATA[Z5&IF(AND(Z5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  Z5&IF(AND(Z5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="AB5">
-        <f><![CDATA[AA5&IF(AND(AA5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","")]]></f>
+        <f><![CDATA[  AA5&IF(AND(AA5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
       </c>
       <c r="AD5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="AE5">
-        <f><![CDATA[AD5&IF(AND(AD5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  AD5&IF(AND(AD5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="AF5">
-        <f><![CDATA[AE5&IF(AND(AE5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  AE5&IF(AND(AE5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="AG5">
-        <f>AF5&amp;IF(AND(AF5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"")</f>
+        <f>  AF5&amp;IF(AND(AF5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"") </f>
       </c>
       <c r="AH5">
-        <f><![CDATA[AG5&IF(AND(AG5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  AG5&IF(AND(AG5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="AI5">
-        <f><![CDATA[AH5&IF(AND(AH5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  AH5&IF(AND(AH5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="AJ5">
-        <f><![CDATA[AI5&IF(AND(AI5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  AI5&IF(AND(AI5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="AK5">
-        <f><![CDATA[AJ5&IF(AND(AJ5<>"",H5<>""),", ","")&IF(H5<>"","'"&H5&"'","")]]></f>
+        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
       </c>
       <c r="AL5">
-        <f><![CDATA[AK5&IF(AND(AK5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  AK5&IF(AND(AK5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="AM5">
-        <f><![CDATA[AL5&IF(AND(AL5<>"",J5<>""),", ","")&IF(J5<>"","'"&J5&"'","")]]></f>
+        <f><![CDATA[  AL5&IF(AND(AL5<>"",J5<>""),", ","")&IF(J5<>"", "'"&J5&"'" ,"") ]]></f>
       </c>
       <c r="AN5">
-        <f><![CDATA[AM5&IF(AND(AM5<>"",K5<>""),", ","")&IF(K5<>"","'"&K5&"'","")]]></f>
+        <f><![CDATA[  AM5&IF(AND(AM5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
       </c>
       <c r="AO5">
-        <f><![CDATA[AN5&IF(AND(AN5<>"",L5<>""),", ","")&IF(L5<>"","'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AN5&IF(AND(AN5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="AP5">
-        <f><![CDATA[AO5&IF(AND(AO5<>"",M5<>""),", ","")&IF(M5<>"","'"&M5&"'","")]]></f>
+        <f><![CDATA[  AO5&IF(AND(AO5<>"",M5<>""),", ","")&IF(M5<>"", "'"&M5&"'" ,"") ]]></f>
       </c>
       <c r="AQ5">
-        <f><![CDATA[AP5&IF(AND(AP5<>"",N5<>""),", ","")&IF(N5<>"","'"&TEXT(N5,"YYYY-MM-DD")&" "&TEXT(N5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AP5&IF(AND(AP5<>"",N5<>""),", ","")&IF(N5<>"", "'"&TEXT(N5,"YYYY-MM-DD")&" "&TEXT(N5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Store/templates/Client.xlsx
+++ b/docs/Store/templates/Client.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>client</t>
   </si>
@@ -27,45 +27,72 @@
     <t/>
   </si>
   <si>
+    <t>Client Id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>integer, PK, NN, INC</t>
   </si>
   <si>
+    <t>Client name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>varchar(100), NN</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
+    <t>First address line</t>
+  </si>
+  <si>
     <t>billing_address_line1</t>
   </si>
   <si>
+    <t>Second address line</t>
+  </si>
+  <si>
     <t>billing_address_line2</t>
   </si>
   <si>
     <t>varchar(100)</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>billing_city</t>
   </si>
   <si>
     <t>varchar(50), NN</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>billing_state</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>billing_country</t>
   </si>
   <si>
+    <t>Post code</t>
+  </si>
+  <si>
     <t>billing_postcode</t>
   </si>
   <si>
@@ -90,30 +117,51 @@
     <t>postal_postcode</t>
   </si>
   <si>
+    <t>Promotion Id</t>
+  </si>
+  <si>
     <t>promotion_id</t>
   </si>
   <si>
     <t>varchar(10)</t>
   </si>
   <si>
+    <t>Segment Id</t>
+  </si>
+  <si>
     <t>segment_id</t>
   </si>
   <si>
+    <t>Business Area Id</t>
+  </si>
+  <si>
     <t>business_area_id</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -124,6 +172,12 @@
   </si>
   <si>
     <t>Client address</t>
+  </si>
+  <si>
+    <t>Address Id</t>
+  </si>
+  <si>
+    <t>Address name</t>
   </si>
   <si>
     <t>client_id</t>
@@ -192,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BO5"/>
+  <dimension ref="A1:BO6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -277,7 +331,7 @@
         <v>3</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -285,67 +339,67 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="K3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="L3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="N3" t="s" s="0">
         <v>23</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -353,204 +407,272 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="S4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="T4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="V4" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="W5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AS5&") VALUES ("&BO5&");" ]]></f>
-      </c>
-      <c r="X5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="Z5">
-        <f><![CDATA[  Y5&IF(AND(Y5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="AA5">
-        <f><![CDATA[  Z5&IF(AND(Z5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="AB5">
-        <f><![CDATA[  AA5&IF(AND(AA5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="AD5">
-        <f><![CDATA[  AC5&IF(AND(AC5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="AE5">
-        <f><![CDATA[  AD5&IF(AND(AD5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="AF5">
-        <f><![CDATA[  AE5&IF(AND(AE5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="AG5">
-        <f><![CDATA[  AF5&IF(AND(AF5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="AH5">
-        <f><![CDATA[  AG5&IF(AND(AG5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="AI5">
-        <f><![CDATA[  AH5&IF(AND(AH5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="AJ5">
-        <f><![CDATA[  AI5&IF(AND(AI5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
-      </c>
-      <c r="AK5">
-        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
-      </c>
-      <c r="AL5">
-        <f><![CDATA[  AK5&IF(AND(AK5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","") ]]></f>
-      </c>
-      <c r="AM5">
-        <f><![CDATA[  AL5&IF(AND(AL5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","") ]]></f>
-      </c>
-      <c r="AN5">
-        <f><![CDATA[  AM5&IF(AND(AM5<>"",Q5<>""),", ","")&IF(Q5<>"",""""&Q$3&"""","") ]]></f>
-      </c>
-      <c r="AO5">
-        <f><![CDATA[  AN5&IF(AND(AN5<>"",R5<>""),", ","")&IF(R5<>"",""""&R$3&"""","") ]]></f>
-      </c>
-      <c r="AP5">
-        <f><![CDATA[  AO5&IF(AND(AO5<>"",S5<>""),", ","")&IF(S5<>"",""""&S$3&"""","") ]]></f>
-      </c>
-      <c r="AQ5">
-        <f><![CDATA[  AP5&IF(AND(AP5<>"",T5<>""),", ","")&IF(T5<>"",""""&T$3&"""","") ]]></f>
-      </c>
-      <c r="AR5">
-        <f><![CDATA[  AQ5&IF(AND(AQ5<>"",U5<>""),", ","")&IF(U5<>"",""""&U$3&"""","") ]]></f>
-      </c>
-      <c r="AS5">
-        <f><![CDATA[  AR5&IF(AND(AR5<>"",V5<>""),", ","")&IF(V5<>"",""""&V$3&"""","") ]]></f>
-      </c>
-      <c r="AT5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="AU5">
-        <f><![CDATA[  AT5&IF(AND(AT5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="AV5">
-        <f><![CDATA[  AU5&IF(AND(AU5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="AW5">
-        <f><![CDATA[  AV5&IF(AND(AV5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="AX5">
-        <f><![CDATA[  AW5&IF(AND(AW5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="AY5">
-        <f><![CDATA[  AX5&IF(AND(AX5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="AZ5">
-        <f><![CDATA[  AY5&IF(AND(AY5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="BA5">
-        <f><![CDATA[  AZ5&IF(AND(AZ5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
-      </c>
-      <c r="BB5">
-        <f><![CDATA[  BA5&IF(AND(BA5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="BC5">
-        <f><![CDATA[  BB5&IF(AND(BB5<>"",J5<>""),", ","")&IF(J5<>"", "'"&J5&"'" ,"") ]]></f>
-      </c>
-      <c r="BD5">
-        <f><![CDATA[  BC5&IF(AND(BC5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
-      </c>
-      <c r="BE5">
-        <f><![CDATA[  BD5&IF(AND(BD5<>"",L5<>""),", ","")&IF(L5<>"", "'"&L5&"'" ,"") ]]></f>
-      </c>
-      <c r="BF5">
-        <f><![CDATA[  BE5&IF(AND(BE5<>"",M5<>""),", ","")&IF(M5<>"", "'"&M5&"'" ,"") ]]></f>
-      </c>
-      <c r="BG5">
-        <f><![CDATA[  BF5&IF(AND(BF5<>"",N5<>""),", ","")&IF(N5<>"", "'"&N5&"'" ,"") ]]></f>
-      </c>
-      <c r="BH5">
-        <f><![CDATA[  BG5&IF(AND(BG5<>"",O5<>""),", ","")&IF(O5<>"", "'"&O5&"'" ,"") ]]></f>
-      </c>
-      <c r="BI5">
-        <f><![CDATA[  BH5&IF(AND(BH5<>"",P5<>""),", ","")&IF(P5<>"", "'"&P5&"'" ,"") ]]></f>
-      </c>
-      <c r="BJ5">
-        <f><![CDATA[  BI5&IF(AND(BI5<>"",Q5<>""),", ","")&IF(Q5<>"", "'"&Q5&"'" ,"") ]]></f>
-      </c>
-      <c r="BK5">
-        <f><![CDATA[  BJ5&IF(AND(BJ5<>"",R5<>""),", ","")&IF(R5<>"", "'"&R5&"'" ,"") ]]></f>
-      </c>
-      <c r="BL5">
-        <f><![CDATA[  BK5&IF(AND(BK5<>"",S5<>""),", ","")&IF(S5<>"", "'"&S5&"'" ,"") ]]></f>
-      </c>
-      <c r="BM5">
-        <f><![CDATA[  BL5&IF(AND(BL5<>"",T5<>""),", ","")&IF(T5<>"", "'"&TEXT(T5,"YYYY-MM-DD")&" "&TEXT(T5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="BN5">
-        <f><![CDATA[  BM5&IF(AND(BM5<>"",U5<>""),", ","")&IF(U5<>"", "'"&U5&"'" ,"") ]]></f>
-      </c>
-      <c r="BO5">
-        <f><![CDATA[  BN5&IF(AND(BN5<>"",V5<>""),", ","")&IF(V5<>"", "'"&TEXT(V5,"YYYY-MM-DD")&" "&TEXT(V5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="W6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AS6&") VALUES ("&BO6&");" ]]></f>
+      </c>
+      <c r="X6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="Z6">
+        <f><![CDATA[  Y6&IF(AND(Y6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="AA6">
+        <f><![CDATA[  Z6&IF(AND(Z6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="AB6">
+        <f><![CDATA[  AA6&IF(AND(AA6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="AD6">
+        <f><![CDATA[  AC6&IF(AND(AC6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="AE6">
+        <f><![CDATA[  AD6&IF(AND(AD6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="AF6">
+        <f><![CDATA[  AE6&IF(AND(AE6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="AG6">
+        <f><![CDATA[  AF6&IF(AND(AF6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="AH6">
+        <f><![CDATA[  AG6&IF(AND(AG6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="AI6">
+        <f><![CDATA[  AH6&IF(AND(AH6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="AJ6">
+        <f><![CDATA[  AI6&IF(AND(AI6<>"",M6<>""),", ","")&IF(M6<>"",""""&M$4&"""","") ]]></f>
+      </c>
+      <c r="AK6">
+        <f><![CDATA[  AJ6&IF(AND(AJ6<>"",N6<>""),", ","")&IF(N6<>"",""""&N$4&"""","") ]]></f>
+      </c>
+      <c r="AL6">
+        <f><![CDATA[  AK6&IF(AND(AK6<>"",O6<>""),", ","")&IF(O6<>"",""""&O$4&"""","") ]]></f>
+      </c>
+      <c r="AM6">
+        <f><![CDATA[  AL6&IF(AND(AL6<>"",P6<>""),", ","")&IF(P6<>"",""""&P$4&"""","") ]]></f>
+      </c>
+      <c r="AN6">
+        <f><![CDATA[  AM6&IF(AND(AM6<>"",Q6<>""),", ","")&IF(Q6<>"",""""&Q$4&"""","") ]]></f>
+      </c>
+      <c r="AO6">
+        <f><![CDATA[  AN6&IF(AND(AN6<>"",R6<>""),", ","")&IF(R6<>"",""""&R$4&"""","") ]]></f>
+      </c>
+      <c r="AP6">
+        <f><![CDATA[  AO6&IF(AND(AO6<>"",S6<>""),", ","")&IF(S6<>"",""""&S$4&"""","") ]]></f>
+      </c>
+      <c r="AQ6">
+        <f><![CDATA[  AP6&IF(AND(AP6<>"",T6<>""),", ","")&IF(T6<>"",""""&T$4&"""","") ]]></f>
+      </c>
+      <c r="AR6">
+        <f><![CDATA[  AQ6&IF(AND(AQ6<>"",U6<>""),", ","")&IF(U6<>"",""""&U$4&"""","") ]]></f>
+      </c>
+      <c r="AS6">
+        <f><![CDATA[  AR6&IF(AND(AR6<>"",V6<>""),", ","")&IF(V6<>"",""""&V$4&"""","") ]]></f>
+      </c>
+      <c r="AT6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="AU6">
+        <f><![CDATA[  AT6&IF(AND(AT6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="AV6">
+        <f><![CDATA[  AU6&IF(AND(AU6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="AW6">
+        <f><![CDATA[  AV6&IF(AND(AV6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="AX6">
+        <f><![CDATA[  AW6&IF(AND(AW6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="AY6">
+        <f><![CDATA[  AX6&IF(AND(AX6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="AZ6">
+        <f><![CDATA[  AY6&IF(AND(AY6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="BA6">
+        <f><![CDATA[  AZ6&IF(AND(AZ6<>"",H6<>""),", ","")&IF(H6<>"", "'"&H6&"'" ,"") ]]></f>
+      </c>
+      <c r="BB6">
+        <f><![CDATA[  BA6&IF(AND(BA6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="BC6">
+        <f><![CDATA[  BB6&IF(AND(BB6<>"",J6<>""),", ","")&IF(J6<>"", "'"&J6&"'" ,"") ]]></f>
+      </c>
+      <c r="BD6">
+        <f><![CDATA[  BC6&IF(AND(BC6<>"",K6<>""),", ","")&IF(K6<>"", "'"&K6&"'" ,"") ]]></f>
+      </c>
+      <c r="BE6">
+        <f><![CDATA[  BD6&IF(AND(BD6<>"",L6<>""),", ","")&IF(L6<>"", "'"&L6&"'" ,"") ]]></f>
+      </c>
+      <c r="BF6">
+        <f><![CDATA[  BE6&IF(AND(BE6<>"",M6<>""),", ","")&IF(M6<>"", "'"&M6&"'" ,"") ]]></f>
+      </c>
+      <c r="BG6">
+        <f><![CDATA[  BF6&IF(AND(BF6<>"",N6<>""),", ","")&IF(N6<>"", "'"&N6&"'" ,"") ]]></f>
+      </c>
+      <c r="BH6">
+        <f><![CDATA[  BG6&IF(AND(BG6<>"",O6<>""),", ","")&IF(O6<>"", "'"&O6&"'" ,"") ]]></f>
+      </c>
+      <c r="BI6">
+        <f><![CDATA[  BH6&IF(AND(BH6<>"",P6<>""),", ","")&IF(P6<>"", "'"&P6&"'" ,"") ]]></f>
+      </c>
+      <c r="BJ6">
+        <f><![CDATA[  BI6&IF(AND(BI6<>"",Q6<>""),", ","")&IF(Q6<>"", "'"&Q6&"'" ,"") ]]></f>
+      </c>
+      <c r="BK6">
+        <f><![CDATA[  BJ6&IF(AND(BJ6<>"",R6<>""),", ","")&IF(R6<>"", "'"&R6&"'" ,"") ]]></f>
+      </c>
+      <c r="BL6">
+        <f><![CDATA[  BK6&IF(AND(BK6<>"",S6<>""),", ","")&IF(S6<>"", "'"&S6&"'" ,"") ]]></f>
+      </c>
+      <c r="BM6">
+        <f><![CDATA[  BL6&IF(AND(BL6<>"",T6<>""),", ","")&IF(T6<>"", "'"&TEXT(T6,"YYYY-MM-DD")&" "&TEXT(T6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="BN6">
+        <f><![CDATA[  BM6&IF(AND(BM6<>"",U6<>""),", ","")&IF(U6<>"", "'"&U6&"'" ,"") ]]></f>
+      </c>
+      <c r="BO6">
+        <f><![CDATA[  BN6&IF(AND(BN6<>"",V6<>""),", ","")&IF(V6<>"", "'"&TEXT(V6,"YYYY-MM-DD")&" "&TEXT(V6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -560,7 +682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -621,51 +743,51 @@
         <v>3</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>37</v>
-      </c>
       <c r="E3" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s" s="0">
+      <c r="L3" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="M3" t="s" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -673,132 +795,176 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="O5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AC5&") VALUES ("&AQ5&");" ]]></f>
-      </c>
-      <c r="P5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="Z5">
-        <f><![CDATA[  Y5&IF(AND(Y5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="AA5">
-        <f><![CDATA[  Z5&IF(AND(Z5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="AB5">
-        <f><![CDATA[  AA5&IF(AND(AA5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
-      </c>
-      <c r="AD5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="AE5">
-        <f><![CDATA[  AD5&IF(AND(AD5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="AF5">
-        <f><![CDATA[  AE5&IF(AND(AE5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="AG5">
-        <f>  AF5&amp;IF(AND(AF5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"") </f>
-      </c>
-      <c r="AH5">
-        <f><![CDATA[  AG5&IF(AND(AG5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="AI5">
-        <f><![CDATA[  AH5&IF(AND(AH5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="AJ5">
-        <f><![CDATA[  AI5&IF(AND(AI5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="AK5">
-        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
-      </c>
-      <c r="AL5">
-        <f><![CDATA[  AK5&IF(AND(AK5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="AM5">
-        <f><![CDATA[  AL5&IF(AND(AL5<>"",J5<>""),", ","")&IF(J5<>"", "'"&J5&"'" ,"") ]]></f>
-      </c>
-      <c r="AN5">
-        <f><![CDATA[  AM5&IF(AND(AM5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
-      </c>
-      <c r="AO5">
-        <f><![CDATA[  AN5&IF(AND(AN5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="AP5">
-        <f><![CDATA[  AO5&IF(AND(AO5<>"",M5<>""),", ","")&IF(M5<>"", "'"&M5&"'" ,"") ]]></f>
-      </c>
-      <c r="AQ5">
-        <f><![CDATA[  AP5&IF(AND(AP5<>"",N5<>""),", ","")&IF(N5<>"", "'"&TEXT(N5,"YYYY-MM-DD")&" "&TEXT(N5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="D5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="O6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AC6&") VALUES ("&AQ6&");" ]]></f>
+      </c>
+      <c r="P6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="Z6">
+        <f><![CDATA[  Y6&IF(AND(Y6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="AA6">
+        <f><![CDATA[  Z6&IF(AND(Z6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="AB6">
+        <f><![CDATA[  AA6&IF(AND(AA6<>"",M6<>""),", ","")&IF(M6<>"",""""&M$4&"""","") ]]></f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",N6<>""),", ","")&IF(N6<>"",""""&N$4&"""","") ]]></f>
+      </c>
+      <c r="AD6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="AE6">
+        <f><![CDATA[  AD6&IF(AND(AD6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="AF6">
+        <f><![CDATA[  AE6&IF(AND(AE6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="AG6">
+        <f>  AF6&amp;IF(AND(AF6&lt;&gt;"",D6&lt;&gt;""),", ","")&amp;IF(D6&lt;&gt;"",D6,"") </f>
+      </c>
+      <c r="AH6">
+        <f><![CDATA[  AG6&IF(AND(AG6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="AI6">
+        <f><![CDATA[  AH6&IF(AND(AH6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="AJ6">
+        <f><![CDATA[  AI6&IF(AND(AI6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="AK6">
+        <f><![CDATA[  AJ6&IF(AND(AJ6<>"",H6<>""),", ","")&IF(H6<>"", "'"&H6&"'" ,"") ]]></f>
+      </c>
+      <c r="AL6">
+        <f><![CDATA[  AK6&IF(AND(AK6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="AM6">
+        <f><![CDATA[  AL6&IF(AND(AL6<>"",J6<>""),", ","")&IF(J6<>"", "'"&J6&"'" ,"") ]]></f>
+      </c>
+      <c r="AN6">
+        <f><![CDATA[  AM6&IF(AND(AM6<>"",K6<>""),", ","")&IF(K6<>"", "'"&K6&"'" ,"") ]]></f>
+      </c>
+      <c r="AO6">
+        <f><![CDATA[  AN6&IF(AND(AN6<>"",L6<>""),", ","")&IF(L6<>"", "'"&TEXT(L6,"YYYY-MM-DD")&" "&TEXT(L6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="AP6">
+        <f><![CDATA[  AO6&IF(AND(AO6<>"",M6<>""),", ","")&IF(M6<>"", "'"&M6&"'" ,"") ]]></f>
+      </c>
+      <c r="AQ6">
+        <f><![CDATA[  AP6&IF(AND(AP6<>"",N6<>""),", ","")&IF(N6<>"", "'"&TEXT(N6,"YYYY-MM-DD")&" "&TEXT(N6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
